--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c203_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c203_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -593,10 +605,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -640,28 +652,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -686,28 +698,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -940,10 +952,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -987,28 +999,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1033,28 +1045,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1171,10 +1183,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1218,28 +1230,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1264,28 +1276,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1431,10 +1443,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1478,28 +1490,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1524,28 +1536,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1662,10 +1674,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1709,28 +1721,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1755,28 +1767,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1922,10 +1934,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1969,28 +1981,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2015,28 +2027,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2153,10 +2165,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2200,28 +2212,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2246,28 +2258,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2384,10 +2396,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2431,28 +2443,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2477,28 +2489,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2615,10 +2627,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2662,28 +2674,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2708,28 +2720,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2846,10 +2858,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2893,28 +2905,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2939,28 +2951,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3135,10 +3147,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3182,28 +3194,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3228,28 +3240,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3453,10 +3465,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3500,28 +3512,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3546,28 +3558,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3713,10 +3725,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3760,28 +3772,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3806,28 +3818,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4002,10 +4014,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
+      <c r="J134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4049,28 +4061,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4095,28 +4107,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4233,10 +4245,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4280,28 +4292,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4326,28 +4338,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4435,10 +4447,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="2" t="s">
+      <c r="J149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4482,28 +4494,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4528,28 +4540,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4637,10 +4649,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4684,28 +4696,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4730,28 +4742,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4839,10 +4851,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4886,28 +4898,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4932,28 +4944,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5099,10 +5111,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5146,28 +5158,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5192,28 +5204,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5330,10 +5342,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5377,28 +5389,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5423,28 +5435,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5561,10 +5573,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5608,28 +5620,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5654,28 +5666,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5792,10 +5804,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5839,28 +5851,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5885,28 +5897,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5994,10 +6006,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6041,28 +6053,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6087,28 +6099,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6196,10 +6208,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6243,28 +6255,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6289,28 +6301,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6398,10 +6410,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6445,28 +6457,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6491,28 +6503,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6629,10 +6641,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6676,28 +6688,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6722,28 +6734,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6802,10 +6814,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6849,28 +6861,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6895,28 +6907,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7004,10 +7016,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7051,28 +7063,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7097,28 +7109,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7206,10 +7218,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="2" t="s">
+      <c r="J245" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7253,28 +7265,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="2">
+      <c r="A247" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="2">
+      <c r="C247" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7299,28 +7311,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="2">
+      <c r="C249" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="2">
+      <c r="D249" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="2">
+      <c r="I249" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7379,10 +7391,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
